--- a/_downloads/c2bf0e1e718727024788aaa1ae7e565a/train-TR-ID1-1.xlsx
+++ b/_downloads/c2bf0e1e718727024788aaa1ae7e565a/train-TR-ID1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\tap-tsi\fte-tom\tom\docs\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49FB4EC2-357B-4AC4-85B8-AD86C21F9DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD0EDA41-D170-4D39-B19A-C16C5238C063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="660" windowWidth="28800" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,64 +34,64 @@
     <t>T</t>
   </si>
   <si>
-    <t>TR/8350/ID1/2021/1/2021-02-01</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/1/2021-02-02</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/1/2021-02-03</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/1/2021-02-04</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/1/2021-02-05</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/1/2021-02-06</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/1/2021-02-07</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-07</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-08</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-09</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-10</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-11</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-12</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-13</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/5/2021-02-15</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/5/2021-02-16</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/5/2021-02-17</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/5/2021-02-18</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/5/2021-02-19</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/5/2021-02-20</t>
+    <t>TR/8350/ID1/2021/10.01/2021-02-01</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/10.01/2021-02-02</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/10.01/2021-02-03</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/10.01/2021-02-04</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/10.01/2021-02-05</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/10.01/2021-02-06</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/10.01/2021-02-07</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-07</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-08</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-09</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-10</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-11</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-12</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-13</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/30.01/2021-02-15</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/30.01/2021-02-16</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/30.01/2021-02-17</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/30.01/2021-02-18</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/30.01/2021-02-19</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/30.01/2021-02-20</t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,15 +113,26 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -148,17 +159,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,12 +480,12 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,10 +588,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
         <v>44234.006944444453</v>
       </c>
       <c r="D8" s="2">
@@ -584,10 +603,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5">
         <v>44234.993055555547</v>
       </c>
       <c r="D9" s="2">
